--- a/文档/项目文档-2024秋季学期/2 班-T09-P05-旅游日记共享平台-董守昱_袁淇浩/附件3-项目数据字典模板（2024秋）.xlsx
+++ b/文档/项目文档-2024秋季学期/2 班-T09-P05-旅游日记共享平台-董守昱_袁淇浩/附件3-项目数据字典模板（2024秋）.xlsx
@@ -1934,8 +1934,8 @@
   <sheetPr/>
   <dimension ref="B1:Q166"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="F74" sqref="F74"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="I137" sqref="I137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/文档/项目文档-2024秋季学期/2 班-T09-P05-旅游日记共享平台-董守昱_袁淇浩/附件3-项目数据字典模板（2024秋）.xlsx
+++ b/文档/项目文档-2024秋季学期/2 班-T09-P05-旅游日记共享平台-董守昱_袁淇浩/附件3-项目数据字典模板（2024秋）.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="219">
   <si>
     <t>数据字典-购物网站数据库设计（模板）</t>
   </si>
@@ -143,7 +143,7 @@
     <t>AUTO_INCREMENT</t>
   </si>
   <si>
-    <t>用户ID，主键，自增长</t>
+    <t>用户ID，主键</t>
   </si>
   <si>
     <t>userName</t>
@@ -306,6 +306,12 @@
   </si>
   <si>
     <t>头像</t>
+  </si>
+  <si>
+    <t>descrption</t>
+  </si>
+  <si>
+    <t>个性签名，描述</t>
   </si>
   <si>
     <t xml:space="preserve">travel_diary 旅游日记表
@@ -369,6 +375,12 @@
     <t>点赞量</t>
   </si>
   <si>
+    <t>lable</t>
+  </si>
+  <si>
+    <t>标签</t>
+  </si>
+  <si>
     <t>comment 评论表</t>
   </si>
   <si>
@@ -508,9 +520,6 @@
   </si>
   <si>
     <t>label</t>
-  </si>
-  <si>
-    <t>标签</t>
   </si>
   <si>
     <t>CancelReason</t>
@@ -708,7 +717,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -752,12 +761,6 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
@@ -1374,137 +1377,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1550,10 +1553,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1632,7 +1631,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{35F65516-B98A-401A-8BDD-B1D0648F9D48}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{81535233-1978-414E-B5FD-8466CEC42DCD}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -1934,8 +1933,8 @@
   <sheetPr/>
   <dimension ref="B1:Q166"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="I137" sqref="I137"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="F151" sqref="F151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2305,7 +2304,7 @@
         <v>53</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="F21" s="16" t="s">
         <v>61</v>
@@ -2559,9 +2558,26 @@
         <v>92</v>
       </c>
     </row>
+    <row r="34" ht="15.75" spans="2:6">
+      <c r="B34" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
     <row r="36" ht="18.15" spans="2:2">
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" ht="31.95" spans="2:6">
@@ -2583,10 +2599,10 @@
     </row>
     <row r="38" ht="15.75" spans="2:9">
       <c r="B38" s="16" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D38" s="16" t="s">
         <v>36</v>
@@ -2595,7 +2611,7 @@
         <v>40</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H38" s="16" t="s">
         <v>8</v>
@@ -2609,7 +2625,7 @@
         <v>34</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D39" s="16" t="s">
         <v>36</v>
@@ -2618,7 +2634,7 @@
         <v>40</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H39" s="16">
         <v>1</v>
@@ -2629,7 +2645,7 @@
     </row>
     <row r="40" ht="30.75" spans="2:9">
       <c r="B40" s="16" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C40" s="16" t="s">
         <v>89</v>
@@ -2641,7 +2657,7 @@
         <v>40</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H40" s="16">
         <v>2</v>
@@ -2652,7 +2668,7 @@
     </row>
     <row r="41" ht="15.75" spans="2:9">
       <c r="B41" s="16" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C41" s="16" t="s">
         <v>89</v>
@@ -2664,7 +2680,7 @@
         <v>80</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H41" s="16">
         <v>3</v>
@@ -2675,10 +2691,10 @@
     </row>
     <row r="42" ht="15.75" spans="2:6">
       <c r="B42" s="16" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D42" s="16" t="s">
         <v>53</v>
@@ -2687,7 +2703,7 @@
         <v>1</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43" ht="15.75" spans="2:6">
@@ -2695,16 +2711,16 @@
         <v>76</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D43" s="16" t="s">
         <v>53</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" ht="15.75" spans="2:6">
@@ -2712,7 +2728,7 @@
         <v>79</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D44" s="16" t="s">
         <v>53</v>
@@ -2721,7 +2737,7 @@
         <v>80</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45" ht="15.75" spans="2:6">
@@ -2738,7 +2754,7 @@
         <v>3</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46" ht="15.75" spans="2:6">
@@ -2755,12 +2771,12 @@
         <v>1</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="47" ht="15.75" spans="2:6">
       <c r="B47" s="16" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C47" s="16" t="s">
         <v>86</v>
@@ -2772,12 +2788,29 @@
         <v>80</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>112</v>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="48" ht="15.75" spans="2:6">
+      <c r="B48" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D48" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F48" s="16" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="59" ht="18.15" spans="2:2">
       <c r="B59" s="13" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="60" ht="31.95" spans="2:6">
@@ -2797,12 +2830,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" ht="15.75" spans="2:6">
+    <row r="61" ht="15.75" spans="2:7">
       <c r="B61" s="16" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D61" s="16" t="s">
         <v>36</v>
@@ -2811,15 +2844,18 @@
         <v>40</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="62" ht="15.75" spans="2:6">
+        <v>119</v>
+      </c>
+      <c r="G61" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" ht="15.75" spans="2:7">
       <c r="B62" s="16" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D62" s="16" t="s">
         <v>36</v>
@@ -2828,15 +2864,18 @@
         <v>40</v>
       </c>
       <c r="F62" s="16" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="63" ht="15.75" spans="2:6">
+        <v>121</v>
+      </c>
+      <c r="G62" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" ht="15.75" spans="2:7">
       <c r="B63" s="16" t="s">
         <v>34</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D63" s="16" t="s">
         <v>36</v>
@@ -2845,12 +2884,15 @@
         <v>40</v>
       </c>
       <c r="F63" s="16" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="64" ht="15.75" spans="2:6">
+        <v>99</v>
+      </c>
+      <c r="G63" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" ht="15.75" spans="2:7">
       <c r="B64" s="16" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C64" s="16" t="s">
         <v>89</v>
@@ -2862,7 +2904,10 @@
         <v>40</v>
       </c>
       <c r="F64" s="16" t="s">
-        <v>118</v>
+        <v>122</v>
+      </c>
+      <c r="G64" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="65" ht="15.75" spans="2:10">
@@ -2870,16 +2915,19 @@
         <v>76</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D65" s="16" t="s">
         <v>53</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F65" s="16" t="s">
-        <v>119</v>
+        <v>123</v>
+      </c>
+      <c r="G65" s="1">
+        <v>5</v>
       </c>
       <c r="I65" s="16" t="s">
         <v>8</v>
@@ -2893,7 +2941,7 @@
         <v>79</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D66" s="16" t="s">
         <v>53</v>
@@ -2902,7 +2950,10 @@
         <v>80</v>
       </c>
       <c r="F66" s="16" t="s">
-        <v>120</v>
+        <v>124</v>
+      </c>
+      <c r="G66" s="1">
+        <v>6</v>
       </c>
       <c r="I66" s="16">
         <v>1</v>
@@ -2927,6 +2978,9 @@
       <c r="F67" s="16" t="s">
         <v>83</v>
       </c>
+      <c r="G67" s="1">
+        <v>7</v>
+      </c>
       <c r="I67" s="16">
         <v>3</v>
       </c>
@@ -2934,7 +2988,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="68" ht="15.75" spans="2:6">
+    <row r="68" ht="15.75" spans="2:7">
       <c r="B68" s="16" t="s">
         <v>8</v>
       </c>
@@ -2947,16 +3001,19 @@
       <c r="E68" s="16">
         <v>1</v>
       </c>
-      <c r="F68" s="17" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="69" ht="15.75" spans="2:6">
+      <c r="F68" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="G68" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" ht="15.75" spans="2:7">
       <c r="B69" s="16" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D69" s="16" t="s">
         <v>53</v>
@@ -2965,12 +3022,15 @@
         <v>80</v>
       </c>
       <c r="F69" s="16" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="70" ht="15.75" spans="2:6">
+        <v>128</v>
+      </c>
+      <c r="G69" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" ht="15.75" spans="2:7">
       <c r="B70" s="16" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C70" s="16" t="s">
         <v>86</v>
@@ -2982,15 +3042,18 @@
         <v>80</v>
       </c>
       <c r="F70" s="16" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="71" ht="15.75" spans="2:6">
+        <v>129</v>
+      </c>
+      <c r="G70" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" ht="15.75" spans="2:7">
       <c r="B71" s="16" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D71" s="16" t="s">
         <v>36</v>
@@ -2999,12 +3062,15 @@
         <v>40</v>
       </c>
       <c r="F71" s="16" t="s">
-        <v>127</v>
+        <v>131</v>
+      </c>
+      <c r="G71" s="1">
+        <v>11</v>
       </c>
     </row>
     <row r="78" ht="18.15" spans="2:2">
       <c r="B78" s="13" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="79" ht="31.95" spans="2:6">
@@ -3026,10 +3092,10 @@
     </row>
     <row r="80" ht="15.75" spans="2:6">
       <c r="B80" s="16" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D80" s="16" t="s">
         <v>36</v>
@@ -3038,7 +3104,7 @@
         <v>40</v>
       </c>
       <c r="F80" s="16" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="81" ht="15.75" spans="2:6">
@@ -3046,7 +3112,7 @@
         <v>34</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D81" s="16" t="s">
         <v>36</v>
@@ -3055,12 +3121,12 @@
         <v>40</v>
       </c>
       <c r="F81" s="16" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="82" ht="15.75" spans="2:6">
       <c r="B82" s="16" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C82" s="16" t="s">
         <v>89</v>
@@ -3072,12 +3138,12 @@
         <v>40</v>
       </c>
       <c r="F82" s="16" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="83" ht="15.75" spans="2:6">
       <c r="B83" s="16" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C83" s="16" t="s">
         <v>89</v>
@@ -3089,12 +3155,12 @@
         <v>80</v>
       </c>
       <c r="F83" s="16" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="84" ht="15.75" spans="2:8">
       <c r="B84" s="16" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C84" s="16" t="s">
         <v>86</v>
@@ -3106,15 +3172,15 @@
         <v>0</v>
       </c>
       <c r="F84" s="16" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="85" ht="15.75" spans="2:8">
       <c r="B85" s="16" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C85" s="16" t="s">
         <v>86</v>
@@ -3126,15 +3192,15 @@
         <v>80</v>
       </c>
       <c r="F85" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="H85" s="18" t="s">
-        <v>139</v>
+        <v>142</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="86" ht="15.75" spans="2:6">
       <c r="B86" s="16" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C86" s="16" t="s">
         <v>86</v>
@@ -3146,15 +3212,15 @@
         <v>0</v>
       </c>
       <c r="F86" s="16" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="87" ht="15.75" spans="2:6">
       <c r="B87" s="16" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D87" s="16" t="s">
         <v>53</v>
@@ -3163,15 +3229,15 @@
         <v>80</v>
       </c>
       <c r="F87" s="16" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="88" ht="15.75" spans="2:6">
       <c r="B88" s="16" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D88" s="16" t="s">
         <v>53</v>
@@ -3180,15 +3246,15 @@
         <v>80</v>
       </c>
       <c r="F88" s="16" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="89" ht="15.75" spans="2:6">
       <c r="B89" s="16" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D89" s="16" t="s">
         <v>53</v>
@@ -3197,15 +3263,15 @@
         <v>80</v>
       </c>
       <c r="F89" s="16" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="90" ht="15.75" spans="2:6">
       <c r="B90" s="16" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D90" s="16" t="s">
         <v>53</v>
@@ -3214,7 +3280,7 @@
         <v>80</v>
       </c>
       <c r="F90" s="16" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="91" ht="15.75" spans="2:11">
@@ -3222,7 +3288,7 @@
         <v>79</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D91" s="16" t="s">
         <v>53</v>
@@ -3231,7 +3297,7 @@
         <v>80</v>
       </c>
       <c r="F91" s="16" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J91" s="16" t="s">
         <v>8</v>
@@ -3254,7 +3320,7 @@
         <v>3</v>
       </c>
       <c r="F92" s="16" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J92" s="16">
         <v>1</v>
@@ -3276,8 +3342,8 @@
       <c r="E93" s="16">
         <v>1</v>
       </c>
-      <c r="F93" s="17" t="s">
-        <v>152</v>
+      <c r="F93" s="16" t="s">
+        <v>156</v>
       </c>
       <c r="J93" s="16">
         <v>2</v>
@@ -3288,19 +3354,19 @@
     </row>
     <row r="94" ht="45.75" spans="2:11">
       <c r="B94" s="16" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D94" s="16" t="s">
         <v>53</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F94" s="16" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="J94" s="16">
         <v>3</v>
@@ -3314,16 +3380,16 @@
         <v>76</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D95" s="16" t="s">
         <v>53</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F95" s="16" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="J95" s="16">
         <v>4</v>
@@ -3334,10 +3400,10 @@
     </row>
     <row r="96" ht="15.75" spans="2:11">
       <c r="B96" s="16" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D96" s="16" t="s">
         <v>53</v>
@@ -3346,7 +3412,7 @@
         <v>80</v>
       </c>
       <c r="F96" s="16" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="J96" s="16">
         <v>5</v>
@@ -3357,7 +3423,7 @@
     </row>
     <row r="97" ht="30.75" spans="2:11">
       <c r="B97" s="16" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C97" s="16" t="s">
         <v>86</v>
@@ -3369,18 +3435,18 @@
         <v>80</v>
       </c>
       <c r="F97" s="16" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="J97" s="16">
         <v>6</v>
       </c>
-      <c r="K97" s="17" t="s">
-        <v>158</v>
+      <c r="K97" s="16" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="98" ht="15.75" spans="2:11">
       <c r="B98" s="16" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C98" s="16" t="s">
         <v>89</v>
@@ -3392,7 +3458,7 @@
         <v>40</v>
       </c>
       <c r="F98" s="16" t="s">
-        <v>160</v>
+        <v>116</v>
       </c>
       <c r="J98" s="16">
         <v>7</v>
@@ -3403,7 +3469,7 @@
     </row>
     <row r="99" ht="15.75" spans="2:11">
       <c r="B99" s="16" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C99" s="16" t="s">
         <v>89</v>
@@ -3415,18 +3481,18 @@
         <v>40</v>
       </c>
       <c r="F99" s="16" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="J99" s="16">
         <v>16</v>
       </c>
       <c r="K99" s="16" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="112" ht="15.15" spans="2:2">
       <c r="B112" s="13" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="113" ht="31.95" spans="2:6">
@@ -3448,7 +3514,7 @@
     </row>
     <row r="114" ht="45.75" spans="2:11">
       <c r="B114" s="16" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C114" s="16" t="s">
         <v>74</v>
@@ -3460,7 +3526,7 @@
         <v>37</v>
       </c>
       <c r="F114" s="16" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="J114" s="16" t="s">
         <v>8</v>
@@ -3471,7 +3537,7 @@
     </row>
     <row r="115" ht="15.75" spans="2:11">
       <c r="B115" s="16" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C115" s="16" t="s">
         <v>74</v>
@@ -3483,7 +3549,7 @@
         <v>40</v>
       </c>
       <c r="F115" s="16" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="J115" s="16">
         <v>1</v>
@@ -3494,7 +3560,7 @@
     </row>
     <row r="116" ht="15.75" spans="2:11">
       <c r="B116" s="16" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C116" s="16" t="s">
         <v>74</v>
@@ -3506,7 +3572,7 @@
         <v>40</v>
       </c>
       <c r="F116" s="16" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="J116" s="16">
         <v>3</v>
@@ -3517,10 +3583,10 @@
     </row>
     <row r="117" ht="15.75" spans="2:6">
       <c r="B117" s="16" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D117" s="16" t="s">
         <v>36</v>
@@ -3529,7 +3595,7 @@
         <v>40</v>
       </c>
       <c r="F117" s="16" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="118" ht="15.75" spans="2:6">
@@ -3545,25 +3611,25 @@
       <c r="E118" s="16">
         <v>1</v>
       </c>
-      <c r="F118" s="17" t="s">
-        <v>173</v>
+      <c r="F118" s="16" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="119" ht="45.75" spans="2:6">
       <c r="B119" s="16" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D119" s="16" t="s">
         <v>36</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F119" s="16" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="120" ht="15.75" spans="2:6">
@@ -3580,7 +3646,7 @@
         <v>80</v>
       </c>
       <c r="F120" s="16" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="121" ht="15.75" spans="2:6">
@@ -3601,15 +3667,15 @@
       </c>
     </row>
     <row r="122" spans="2:6">
-      <c r="B122" s="19"/>
-      <c r="C122" s="19"/>
-      <c r="D122" s="19"/>
-      <c r="E122" s="19"/>
-      <c r="F122" s="19"/>
+      <c r="B122" s="17"/>
+      <c r="C122" s="17"/>
+      <c r="D122" s="17"/>
+      <c r="E122" s="17"/>
+      <c r="F122" s="17"/>
     </row>
     <row r="128" ht="18.15" spans="2:2">
       <c r="B128" s="13" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="129" ht="31.95" spans="2:10">
@@ -3637,10 +3703,10 @@
     </row>
     <row r="130" ht="15.75" spans="2:10">
       <c r="B130" s="16" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D130" s="16" t="s">
         <v>36</v>
@@ -3649,7 +3715,7 @@
         <v>40</v>
       </c>
       <c r="F130" s="16" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I130" s="16">
         <v>11</v>
@@ -3660,10 +3726,10 @@
     </row>
     <row r="131" ht="15.75" spans="2:10">
       <c r="B131" s="16" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D131" s="16" t="s">
         <v>36</v>
@@ -3672,7 +3738,7 @@
         <v>40</v>
       </c>
       <c r="F131" s="16" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I131" s="16">
         <v>4</v>
@@ -3686,7 +3752,7 @@
         <v>34</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D132" s="16" t="s">
         <v>36</v>
@@ -3695,7 +3761,7 @@
         <v>40</v>
       </c>
       <c r="F132" s="16" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="I132" s="16">
         <v>5</v>
@@ -3706,25 +3772,25 @@
     </row>
     <row r="133" ht="45.75" spans="2:10">
       <c r="B133" s="16" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D133" s="16" t="s">
         <v>53</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F133" s="16" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="I133" s="16">
         <v>6</v>
       </c>
       <c r="J133" s="16" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="134" ht="30.75" spans="2:10">
@@ -3740,8 +3806,8 @@
       <c r="E134" s="16">
         <v>1</v>
       </c>
-      <c r="F134" s="17" t="s">
-        <v>185</v>
+      <c r="F134" s="16" t="s">
+        <v>188</v>
       </c>
       <c r="I134" s="16">
         <v>7</v>
@@ -3751,31 +3817,21 @@
       </c>
     </row>
     <row r="135" ht="15.75" spans="2:10">
-      <c r="B135" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="C135" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="D135" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E135" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F135" s="16" t="s">
-        <v>160</v>
-      </c>
+      <c r="B135" s="16"/>
+      <c r="C135" s="16"/>
+      <c r="D135" s="16"/>
+      <c r="E135" s="16"/>
+      <c r="F135" s="16"/>
       <c r="I135" s="16">
         <v>16</v>
       </c>
       <c r="J135" s="16" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="139" ht="18.15" spans="2:2">
       <c r="B139" s="13" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="140" ht="31.95" spans="2:6">
@@ -3797,10 +3853,10 @@
     </row>
     <row r="141" ht="15.75" spans="2:6">
       <c r="B141" s="16" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D141" s="16" t="s">
         <v>36</v>
@@ -3809,15 +3865,15 @@
         <v>40</v>
       </c>
       <c r="F141" s="16" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="142" ht="15.75" spans="2:6">
       <c r="B142" s="16" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D142" s="16" t="s">
         <v>36</v>
@@ -3826,15 +3882,15 @@
         <v>40</v>
       </c>
       <c r="F142" s="16" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="143" ht="15.75" spans="2:6">
       <c r="B143" s="16" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D143" s="16" t="s">
         <v>36</v>
@@ -3843,15 +3899,15 @@
         <v>40</v>
       </c>
       <c r="F143" s="16" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="144" ht="15.75" spans="2:6">
       <c r="B144" s="16" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D144" s="16" t="s">
         <v>36</v>
@@ -3860,15 +3916,15 @@
         <v>40</v>
       </c>
       <c r="F144" s="16" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="145" ht="15.75" spans="2:10">
       <c r="B145" s="16" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D145" s="16" t="s">
         <v>36</v>
@@ -3877,7 +3933,7 @@
         <v>40</v>
       </c>
       <c r="F145" s="16" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="I145" s="16" t="s">
         <v>8</v>
@@ -3888,7 +3944,7 @@
     </row>
     <row r="146" ht="15.75" spans="2:10">
       <c r="B146" s="16" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C146" s="16" t="s">
         <v>89</v>
@@ -3900,7 +3956,7 @@
         <v>80</v>
       </c>
       <c r="F146" s="16" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="I146" s="16">
         <v>12</v>
@@ -3914,16 +3970,16 @@
         <v>76</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D147" s="16" t="s">
         <v>53</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F147" s="16" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="I147" s="16">
         <v>13</v>
@@ -3937,16 +3993,16 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D148" s="16" t="s">
         <v>53</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="F148" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
+      </c>
+      <c r="F148" s="16" t="s">
+        <v>204</v>
       </c>
       <c r="I148" s="16">
         <v>14</v>
@@ -3957,10 +4013,10 @@
     </row>
     <row r="149" ht="15.75" spans="2:10">
       <c r="B149" s="16" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D149" s="16" t="s">
         <v>53</v>
@@ -3969,7 +4025,7 @@
         <v>80</v>
       </c>
       <c r="F149" s="16" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="I149" s="16">
         <v>15</v>
@@ -3980,10 +4036,10 @@
     </row>
     <row r="150" ht="15.75" spans="2:6">
       <c r="B150" s="16" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D150" s="16" t="s">
         <v>53</v>
@@ -3992,15 +4048,12 @@
         <v>80</v>
       </c>
       <c r="F150" s="16" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="151" spans="2:2">
-      <c r="B151" s="18"/>
+        <v>208</v>
+      </c>
     </row>
     <row r="159" ht="18.15" spans="2:2">
       <c r="B159" s="13" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="160" ht="31.95" spans="2:6">
@@ -4022,10 +4075,10 @@
     </row>
     <row r="161" ht="15.75" spans="2:6">
       <c r="B161" s="16" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D161" s="16" t="s">
         <v>36</v>
@@ -4034,7 +4087,7 @@
         <v>40</v>
       </c>
       <c r="F161" s="16" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="162" ht="15.75" spans="2:6">
@@ -4042,7 +4095,7 @@
         <v>34</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D162" s="16" t="s">
         <v>36</v>
@@ -4051,15 +4104,15 @@
         <v>40</v>
       </c>
       <c r="F162" s="16" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="163" ht="15.75" spans="2:6">
       <c r="B163" s="16" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D163" s="16" t="s">
         <v>36</v>
@@ -4068,15 +4121,15 @@
         <v>40</v>
       </c>
       <c r="F163" s="16" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="164" ht="15.75" spans="2:6">
       <c r="B164" s="16" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D164" s="16" t="s">
         <v>36</v>
@@ -4085,7 +4138,7 @@
         <v>40</v>
       </c>
       <c r="F164" s="16" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="165" ht="45.75" spans="2:6">
@@ -4093,16 +4146,16 @@
         <v>76</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D165" s="16" t="s">
         <v>53</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F165" s="16" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="166" ht="15.75" spans="2:6">
@@ -4110,7 +4163,7 @@
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D166" s="16" t="s">
         <v>36</v>
@@ -4119,7 +4172,7 @@
         <v>1</v>
       </c>
       <c r="F166" s="16" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
